--- a/main/data/first_missing_positive.xlsx
+++ b/main/data/first_missing_positive.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.03989028930664</v>
+        <v>17.65012741088867</v>
       </c>
       <c r="D2" t="n">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.56987380981445</v>
+        <v>17.29297637939453</v>
       </c>
       <c r="D3" t="n">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24.02186393737793</v>
+        <v>17.11106300354004</v>
       </c>
       <c r="D4" t="n">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23.94795417785645</v>
+        <v>17.25292205810547</v>
       </c>
       <c r="D5" t="n">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25.22492408752441</v>
+        <v>17.0590877532959</v>
       </c>
       <c r="D6" t="n">
-        <v>296</v>
+        <v>123</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/first_missing_positive.xlsx
+++ b/main/data/first_missing_positive.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.65012741088867</v>
+        <v>17.7159309387207</v>
       </c>
       <c r="D2" t="n">
         <v>123</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.29297637939453</v>
+        <v>17.00711250305176</v>
       </c>
       <c r="D3" t="n">
         <v>123</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.11106300354004</v>
+        <v>16.59107208251953</v>
       </c>
       <c r="D4" t="n">
         <v>123</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.25292205810547</v>
+        <v>16.47686958312988</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17.0590877532959</v>
+        <v>16.36934280395508</v>
       </c>
       <c r="D6" t="n">
         <v>123</v>

--- a/main/data/first_missing_positive.xlsx
+++ b/main/data/first_missing_positive.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.7159309387207</v>
+        <v>18.82195472717285</v>
       </c>
       <c r="D2" t="n">
         <v>123</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.00711250305176</v>
+        <v>17.77195930480957</v>
       </c>
       <c r="D3" t="n">
         <v>123</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.59107208251953</v>
+        <v>17.63105392456055</v>
       </c>
       <c r="D4" t="n">
         <v>123</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.47686958312988</v>
+        <v>17.46082305908203</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.36934280395508</v>
+        <v>18.08714866638184</v>
       </c>
       <c r="D6" t="n">
         <v>123</v>
